--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.521200000000006</v>
+        <v>6.611300000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.420900000000001</v>
+        <v>9.4297</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.990099999999998</v>
+        <v>8.869799999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.45149999999999</v>
+        <v>-13.57999999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.939699999999998</v>
+        <v>6.081899999999996</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.881</v>
+        <v>-13.7972</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.9963</v>
+        <v>-11.9264</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.49019999999999</v>
+        <v>-13.67399999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.9693</v>
+        <v>-12.16709999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.89059999999999</v>
+        <v>-13.7908</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.82499999999999</v>
+        <v>-10.7776</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.447999999999996</v>
+        <v>6.321299999999993</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.82540000000001</v>
+        <v>-10.87420000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.33139999999999</v>
+        <v>-13.38480000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.957099999999993</v>
+        <v>4.950199999999993</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.657699999999999</v>
+        <v>5.200899999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.605899999999991</v>
+        <v>5.251499999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.1911</v>
+        <v>-12.2576</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.618700000000006</v>
+        <v>9.859200000000008</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.910799999999999</v>
+        <v>5.668199999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.31619999999999</v>
+        <v>-13.8331</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.0087</v>
+        <v>-12.98679999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.5424</v>
+        <v>5.6311</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.09849999999999</v>
+        <v>-13.0037</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
